--- a/Jogos_do_Dia/2024-02-14_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-02-14_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -673,37 +673,37 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Al Mokawloon</t>
+          <t>Al Ittihad</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>ENPPI</t>
+          <t>El Geish</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.71</v>
+        <v>3.36</v>
       </c>
       <c r="H2" t="n">
         <v>2.04</v>
       </c>
       <c r="I2" t="n">
-        <v>3.31</v>
+        <v>3.64</v>
       </c>
       <c r="J2" t="n">
-        <v>3.25</v>
+        <v>2.38</v>
       </c>
       <c r="K2" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="L2" t="n">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="M2" t="n">
         <v>1.5</v>
       </c>
       <c r="N2" t="n">
-        <v>2.57</v>
+        <v>2.58</v>
       </c>
       <c r="O2" t="n">
         <v>1.05</v>
@@ -718,10 +718,10 @@
         <v>2.6</v>
       </c>
       <c r="S2" t="n">
-        <v>2.19</v>
+        <v>2.3</v>
       </c>
       <c r="T2" t="n">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="U2" t="n">
         <v>1.93</v>
@@ -730,67 +730,67 @@
         <v>1.83</v>
       </c>
       <c r="W2" t="n">
-        <v>1.48</v>
+        <v>1.39</v>
       </c>
       <c r="X2" t="n">
         <v>1.32</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.37</v>
+        <v>1.46</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.5</v>
+        <v>2.2</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.19</v>
+        <v>1.45</v>
       </c>
       <c r="AC2" t="n">
-        <v>1.55</v>
+        <v>1.46</v>
       </c>
       <c r="AD2" t="n">
-        <v>2.74</v>
+        <v>2.91</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AK2" t="n">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="AL2" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="AM2" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AN2" t="n">
-        <v>0</v>
+        <v>2.67</v>
       </c>
       <c r="AO2" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="AP2" t="n">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="3">
@@ -812,37 +812,37 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Al Ittihad</t>
+          <t>Al Mokawloon</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>El Geish</t>
+          <t>ENPPI</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3.36</v>
+        <v>3.71</v>
       </c>
       <c r="H3" t="n">
         <v>2.04</v>
       </c>
       <c r="I3" t="n">
-        <v>3.64</v>
+        <v>3.31</v>
       </c>
       <c r="J3" t="n">
-        <v>2.63</v>
+        <v>2.8</v>
       </c>
       <c r="K3" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="L3" t="n">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="M3" t="n">
         <v>1.5</v>
       </c>
       <c r="N3" t="n">
-        <v>2.58</v>
+        <v>2.57</v>
       </c>
       <c r="O3" t="n">
         <v>1.05</v>
@@ -857,10 +857,10 @@
         <v>2.6</v>
       </c>
       <c r="S3" t="n">
-        <v>2.13</v>
+        <v>2.25</v>
       </c>
       <c r="T3" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="U3" t="n">
         <v>1.93</v>
@@ -869,67 +869,67 @@
         <v>1.83</v>
       </c>
       <c r="W3" t="n">
-        <v>1.39</v>
+        <v>1.48</v>
       </c>
       <c r="X3" t="n">
         <v>1.32</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.46</v>
+        <v>1.37</v>
       </c>
       <c r="Z3" t="n">
-        <v>2.2</v>
+        <v>0.5</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.45</v>
+        <v>1.19</v>
       </c>
       <c r="AC3" t="n">
-        <v>1.46</v>
+        <v>1.55</v>
       </c>
       <c r="AD3" t="n">
-        <v>2.91</v>
+        <v>2.74</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>3.18</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="AM3" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="AN3" t="n">
-        <v>0</v>
+        <v>2.54</v>
       </c>
       <c r="AO3" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="AP3" t="n">
-        <v>0</v>
+        <v>3.48</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="4">
@@ -969,13 +969,13 @@
         <v>3.77</v>
       </c>
       <c r="J4" t="n">
-        <v>2.25</v>
+        <v>2.24</v>
       </c>
       <c r="K4" t="n">
-        <v>3.25</v>
+        <v>3.28</v>
       </c>
       <c r="L4" t="n">
-        <v>3.1</v>
+        <v>3.22</v>
       </c>
       <c r="M4" t="n">
         <v>1.33</v>
@@ -996,10 +996,10 @@
         <v>4</v>
       </c>
       <c r="S4" t="n">
-        <v>1.93</v>
+        <v>1.78</v>
       </c>
       <c r="T4" t="n">
-        <v>1.88</v>
+        <v>1.98</v>
       </c>
       <c r="U4" t="n">
         <v>1.62</v>
@@ -1017,10 +1017,10 @@
         <v>1.69</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.79</v>
+        <v>1.11</v>
       </c>
       <c r="AA4" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AB4" t="n">
         <v>1.63</v>
@@ -1074,7 +1074,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Egypt Egyptian Premier League</t>
+          <t>Czech Republic First League</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
@@ -1086,134 +1086,134 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Masr</t>
+          <t>Zlín</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Pyramids FC</t>
+          <t>Slavia Praha</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>12.6</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>6.74</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Z5" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AN5" t="n">
         <v>2</v>
       </c>
-      <c r="AA5" t="n">
-        <v>2</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>2.39</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>0</v>
-      </c>
       <c r="AO5" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AP5" t="n">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Czech Republic First League</t>
+          <t>Egypt Egyptian Premier League</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
@@ -1225,128 +1225,128 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Zlín</t>
+          <t>Masr</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Slavia Praha</t>
+          <t>Pyramids FC</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="H6" t="n">
-        <v>2.8</v>
+        <v>1.95</v>
       </c>
       <c r="I6" t="n">
-        <v>1.6</v>
+        <v>3.4</v>
       </c>
       <c r="J6" t="n">
-        <v>11</v>
+        <v>2.5</v>
       </c>
       <c r="K6" t="n">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="L6" t="n">
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.22</v>
+        <v>1.5</v>
       </c>
       <c r="N6" t="n">
-        <v>4</v>
+        <v>2.37</v>
       </c>
       <c r="O6" t="n">
-        <v>1.02</v>
+        <v>1.08</v>
       </c>
       <c r="P6" t="n">
-        <v>13</v>
+        <v>7.25</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.12</v>
+        <v>1.43</v>
       </c>
       <c r="R6" t="n">
-        <v>5.5</v>
+        <v>2.6</v>
       </c>
       <c r="S6" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="T6" t="n">
         <v>1.57</v>
       </c>
-      <c r="T6" t="n">
-        <v>2.25</v>
-      </c>
       <c r="U6" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V6" t="n">
-        <v>1.91</v>
+        <v>1.71</v>
       </c>
       <c r="W6" t="n">
-        <v>3.75</v>
+        <v>1.46</v>
       </c>
       <c r="X6" t="n">
-        <v>1.08</v>
+        <v>1.33</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.01</v>
+        <v>1.46</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.74</v>
+        <v>2</v>
       </c>
       <c r="AA6" t="n">
-        <v>2.53</v>
+        <v>2</v>
       </c>
       <c r="AB6" t="n">
-        <v>1.36</v>
+        <v>2.39</v>
       </c>
       <c r="AC6" t="n">
-        <v>1.92</v>
+        <v>1.55</v>
       </c>
       <c r="AD6" t="n">
-        <v>3.28</v>
+        <v>3.94</v>
       </c>
       <c r="AE6" t="n">
-        <v>5.17</v>
+        <v>0</v>
       </c>
       <c r="AF6" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AG6" t="n">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="AH6" t="n">
-        <v>1.16</v>
+        <v>0</v>
       </c>
       <c r="AI6" t="n">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="AK6" t="n">
-        <v>3.08</v>
+        <v>0</v>
       </c>
       <c r="AL6" t="n">
-        <v>1.59</v>
+        <v>0</v>
       </c>
       <c r="AM6" t="n">
-        <v>2.34</v>
+        <v>0</v>
       </c>
       <c r="AN6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO6" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>2.35</v>
+        <v>0</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1.58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1386,13 +1386,13 @@
         <v>3.75</v>
       </c>
       <c r="J7" t="n">
-        <v>2.31</v>
+        <v>2.3</v>
       </c>
       <c r="K7" t="n">
-        <v>3.35</v>
+        <v>3.19</v>
       </c>
       <c r="L7" t="n">
-        <v>3.15</v>
+        <v>3.17</v>
       </c>
       <c r="M7" t="n">
         <v>1.5</v>
@@ -1413,10 +1413,10 @@
         <v>2.9</v>
       </c>
       <c r="S7" t="n">
-        <v>2.12</v>
+        <v>2.19</v>
       </c>
       <c r="T7" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="U7" t="n">
         <v>1.95</v>
@@ -1440,13 +1440,13 @@
         <v>1.27</v>
       </c>
       <c r="AB7" t="n">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="AC7" t="n">
         <v>1.38</v>
       </c>
       <c r="AD7" t="n">
-        <v>2.75</v>
+        <v>2.79</v>
       </c>
       <c r="AE7" t="n">
         <v>2.02</v>
@@ -1491,7 +1491,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Scotland Premiership</t>
+          <t>England Championship</t>
         </is>
       </c>
       <c r="B8" s="2" t="n">
@@ -1503,134 +1503,134 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Aberdeen</t>
+          <t>Plymouth Argyle</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Motherwell</t>
+          <t>Coventry City</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.3</v>
+        <v>4.37</v>
       </c>
       <c r="H8" t="n">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="I8" t="n">
-        <v>4.75</v>
+        <v>2.39</v>
       </c>
       <c r="J8" t="n">
-        <v>1.91</v>
+        <v>4.01</v>
       </c>
       <c r="K8" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="L8" t="n">
-        <v>4.1</v>
+        <v>1.85</v>
       </c>
       <c r="M8" t="n">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="N8" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="O8" t="n">
         <v>1.03</v>
       </c>
       <c r="P8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.22</v>
+        <v>1.14</v>
       </c>
       <c r="R8" t="n">
-        <v>4</v>
+        <v>4.7</v>
       </c>
       <c r="S8" t="n">
-        <v>1.93</v>
+        <v>1.52</v>
       </c>
       <c r="T8" t="n">
-        <v>1.88</v>
+        <v>2.43</v>
       </c>
       <c r="U8" t="n">
-        <v>1.75</v>
+        <v>1.55</v>
       </c>
       <c r="V8" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="W8" t="n">
-        <v>1.22</v>
+        <v>1.97</v>
       </c>
       <c r="X8" t="n">
         <v>1.25</v>
       </c>
       <c r="Y8" t="n">
-        <v>2</v>
+        <v>1.16</v>
       </c>
       <c r="Z8" t="n">
-        <v>1.18</v>
+        <v>1.93</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.82</v>
+        <v>1.2</v>
       </c>
       <c r="AB8" t="n">
-        <v>1.27</v>
+        <v>1.65</v>
       </c>
       <c r="AC8" t="n">
-        <v>1.14</v>
+        <v>1.42</v>
       </c>
       <c r="AD8" t="n">
-        <v>2.41</v>
+        <v>3.07</v>
       </c>
       <c r="AE8" t="n">
-        <v>1.59</v>
+        <v>2.53</v>
       </c>
       <c r="AF8" t="n">
         <v>8.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>2.78</v>
+        <v>1.69</v>
       </c>
       <c r="AH8" t="n">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="AI8" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="AK8" t="n">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="AL8" t="n">
-        <v>1.54</v>
+        <v>1.4</v>
       </c>
       <c r="AM8" t="n">
-        <v>2.38</v>
+        <v>2.8</v>
       </c>
       <c r="AN8" t="n">
-        <v>1.95</v>
+        <v>1.68</v>
       </c>
       <c r="AO8" t="n">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="AP8" t="n">
-        <v>2.5</v>
+        <v>2.12</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1.49</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Scotland Premiership</t>
+          <t>England Championship</t>
         </is>
       </c>
       <c r="B9" s="2" t="n">
@@ -1642,128 +1642,128 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Rangers</t>
+          <t>Preston North End</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Ross County</t>
+          <t>Middlesbrough</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.57</v>
+        <v>4</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="I9" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L9" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="N9" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="P9" t="n">
         <v>10</v>
       </c>
-      <c r="J9" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="K9" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="L9" t="n">
-        <v>27</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="N9" t="n">
-        <v>4</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P9" t="n">
-        <v>17.5</v>
-      </c>
       <c r="Q9" t="n">
-        <v>1.12</v>
+        <v>1.33</v>
       </c>
       <c r="R9" t="n">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="S9" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W9" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="X9" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AA9" t="n">
         <v>1.43</v>
       </c>
-      <c r="T9" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="U9" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="W9" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="X9" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>0.67</v>
-      </c>
       <c r="AB9" t="n">
-        <v>2.22</v>
+        <v>1.17</v>
       </c>
       <c r="AC9" t="n">
-        <v>1.11</v>
+        <v>1.48</v>
       </c>
       <c r="AD9" t="n">
-        <v>3.33</v>
+        <v>2.65</v>
       </c>
       <c r="AE9" t="n">
-        <v>1.08</v>
+        <v>2.78</v>
       </c>
       <c r="AF9" t="n">
-        <v>15</v>
+        <v>8.5</v>
       </c>
       <c r="AG9" t="n">
-        <v>9.300000000000001</v>
+        <v>1.59</v>
       </c>
       <c r="AH9" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="AI9" t="n">
-        <v>5.4</v>
+        <v>4.5</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1.24</v>
+        <v>1.34</v>
       </c>
       <c r="AK9" t="n">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="AL9" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AQ9" t="n">
         <v>1.43</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>1.62</v>
       </c>
     </row>
     <row r="10">
@@ -1785,124 +1785,124 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Huddersfield Town</t>
+          <t>Stoke City</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Sunderland</t>
+          <t>Queens Park Rangers</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.9</v>
+        <v>2.75</v>
       </c>
       <c r="H10" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="L10" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="P10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="R10" t="n">
+        <v>3</v>
+      </c>
+      <c r="S10" t="n">
         <v>2.05</v>
       </c>
-      <c r="I10" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="J10" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="K10" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="N10" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="P10" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="R10" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.99</v>
-      </c>
       <c r="T10" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="U10" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="V10" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="W10" t="n">
-        <v>1.73</v>
+        <v>1.28</v>
       </c>
       <c r="X10" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.29</v>
+        <v>1.78</v>
       </c>
       <c r="Z10" t="n">
-        <v>1.2</v>
+        <v>1.07</v>
       </c>
       <c r="AA10" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AB10" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="AC10" t="n">
-        <v>1.56</v>
+        <v>0.99</v>
       </c>
       <c r="AD10" t="n">
-        <v>2.88</v>
+        <v>2.32</v>
       </c>
       <c r="AE10" t="n">
-        <v>3.07</v>
+        <v>1.64</v>
       </c>
       <c r="AF10" t="n">
         <v>8.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>1.51</v>
+        <v>2.66</v>
       </c>
       <c r="AH10" t="n">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="AI10" t="n">
-        <v>4.5</v>
+        <v>4.65</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="AK10" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="AL10" t="n">
-        <v>1.61</v>
+        <v>1.55</v>
       </c>
       <c r="AM10" t="n">
-        <v>2.23</v>
+        <v>2.38</v>
       </c>
       <c r="AN10" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="AO10" t="n">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="AP10" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.44</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="11">
@@ -1924,130 +1924,130 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Plymouth Argyle</t>
+          <t>Huddersfield Town</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Coventry City</t>
+          <t>Sunderland</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>4.37</v>
+        <v>3.9</v>
       </c>
       <c r="H11" t="n">
-        <v>2.55</v>
+        <v>2.05</v>
       </c>
       <c r="I11" t="n">
-        <v>2.39</v>
+        <v>2.65</v>
       </c>
       <c r="J11" t="n">
-        <v>3.9</v>
+        <v>4.07</v>
       </c>
       <c r="K11" t="n">
-        <v>4</v>
+        <v>3.59</v>
       </c>
       <c r="L11" t="n">
-        <v>1.84</v>
+        <v>1.93</v>
       </c>
       <c r="M11" t="n">
-        <v>1.28</v>
+        <v>1.41</v>
       </c>
       <c r="N11" t="n">
-        <v>3.4</v>
+        <v>2.65</v>
       </c>
       <c r="O11" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="P11" t="n">
-        <v>12</v>
+        <v>8.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.14</v>
+        <v>1.29</v>
       </c>
       <c r="R11" t="n">
-        <v>4.7</v>
+        <v>3.15</v>
       </c>
       <c r="S11" t="n">
-        <v>1.54</v>
+        <v>1.98</v>
       </c>
       <c r="T11" t="n">
-        <v>2.32</v>
+        <v>1.87</v>
       </c>
       <c r="U11" t="n">
-        <v>1.55</v>
+        <v>1.82</v>
       </c>
       <c r="V11" t="n">
-        <v>2.25</v>
+        <v>1.87</v>
       </c>
       <c r="W11" t="n">
-        <v>1.97</v>
+        <v>1.73</v>
       </c>
       <c r="X11" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.16</v>
+        <v>1.29</v>
       </c>
       <c r="Z11" t="n">
-        <v>1.93</v>
+        <v>1.2</v>
       </c>
       <c r="AA11" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AB11" t="n">
-        <v>1.65</v>
+        <v>1.32</v>
       </c>
       <c r="AC11" t="n">
-        <v>1.42</v>
+        <v>1.56</v>
       </c>
       <c r="AD11" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AE11" t="n">
         <v>3.07</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>2.53</v>
       </c>
       <c r="AF11" t="n">
         <v>8.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>1.69</v>
+        <v>1.51</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1.22</v>
+        <v>1.34</v>
       </c>
       <c r="AK11" t="n">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="AL11" t="n">
-        <v>1.4</v>
+        <v>1.61</v>
       </c>
       <c r="AM11" t="n">
-        <v>2.8</v>
+        <v>2.23</v>
       </c>
       <c r="AN11" t="n">
-        <v>1.68</v>
+        <v>2.02</v>
       </c>
       <c r="AO11" t="n">
-        <v>2.1</v>
+        <v>1.74</v>
       </c>
       <c r="AP11" t="n">
-        <v>2.12</v>
+        <v>2.7</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1.67</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>England Championship</t>
+          <t>Scotland Premiership</t>
         </is>
       </c>
       <c r="B12" s="2" t="n">
@@ -2059,98 +2059,98 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Preston North End</t>
+          <t>Aberdeen</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Middlesbrough</t>
+          <t>Motherwell</t>
         </is>
       </c>
       <c r="G12" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="I12" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="K12" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="L12" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="N12" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="P12" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="R12" t="n">
         <v>4</v>
       </c>
-      <c r="H12" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="J12" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K12" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="N12" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="P12" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="R12" t="n">
-        <v>3.3</v>
-      </c>
       <c r="S12" t="n">
-        <v>1.99</v>
+        <v>1.96</v>
       </c>
       <c r="T12" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="U12" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V12" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="W12" t="n">
-        <v>1.73</v>
+        <v>1.22</v>
       </c>
       <c r="X12" t="n">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.31</v>
+        <v>2</v>
       </c>
       <c r="Z12" t="n">
-        <v>1.73</v>
+        <v>1.18</v>
       </c>
       <c r="AA12" t="n">
-        <v>1.43</v>
+        <v>0.82</v>
       </c>
       <c r="AB12" t="n">
-        <v>1.17</v>
+        <v>1.27</v>
       </c>
       <c r="AC12" t="n">
-        <v>1.48</v>
+        <v>1.14</v>
       </c>
       <c r="AD12" t="n">
-        <v>2.65</v>
+        <v>2.41</v>
       </c>
       <c r="AE12" t="n">
-        <v>2.78</v>
+        <v>1.59</v>
       </c>
       <c r="AF12" t="n">
         <v>8.5</v>
       </c>
       <c r="AG12" t="n">
-        <v>1.59</v>
+        <v>2.78</v>
       </c>
       <c r="AH12" t="n">
         <v>1.18</v>
@@ -2159,34 +2159,34 @@
         <v>4.5</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="AK12" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="AL12" t="n">
-        <v>1.61</v>
+        <v>1.54</v>
       </c>
       <c r="AM12" t="n">
-        <v>2.23</v>
+        <v>2.38</v>
       </c>
       <c r="AN12" t="n">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="AO12" t="n">
-        <v>1.74</v>
+        <v>1.85</v>
       </c>
       <c r="AP12" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1.43</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>England Championship</t>
+          <t>Scotland Premiership</t>
         </is>
       </c>
       <c r="B13" s="2" t="n">
@@ -2198,128 +2198,128 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Stoke City</t>
+          <t>Rangers</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Queens Park Rangers</t>
+          <t>Ross County</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.75</v>
+        <v>1.57</v>
       </c>
       <c r="H13" t="n">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="I13" t="n">
-        <v>4.33</v>
+        <v>10</v>
       </c>
       <c r="J13" t="n">
-        <v>1.95</v>
+        <v>1.08</v>
       </c>
       <c r="K13" t="n">
-        <v>3.5</v>
+        <v>13.07</v>
       </c>
       <c r="L13" t="n">
+        <v>25.78</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="N13" t="n">
         <v>4</v>
       </c>
-      <c r="M13" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="N13" t="n">
-        <v>2.63</v>
-      </c>
       <c r="O13" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P13" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="R13" t="n">
+        <v>6</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="U13" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="W13" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="X13" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="AE13" t="n">
         <v>1.08</v>
       </c>
-      <c r="P13" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="R13" t="n">
-        <v>3</v>
-      </c>
-      <c r="S13" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W13" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="X13" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>1.64</v>
-      </c>
       <c r="AF13" t="n">
-        <v>8.5</v>
+        <v>15</v>
       </c>
       <c r="AG13" t="n">
-        <v>2.66</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AH13" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="AI13" t="n">
-        <v>4.65</v>
+        <v>5.4</v>
       </c>
       <c r="AJ13" t="n">
-        <v>1.3</v>
+        <v>1.24</v>
       </c>
       <c r="AK13" t="n">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="AL13" t="n">
-        <v>1.55</v>
+        <v>1.43</v>
       </c>
       <c r="AM13" t="n">
-        <v>2.38</v>
+        <v>2.7</v>
       </c>
       <c r="AN13" t="n">
-        <v>2</v>
+        <v>1.74</v>
       </c>
       <c r="AO13" t="n">
-        <v>1.8</v>
+        <v>2.02</v>
       </c>
       <c r="AP13" t="n">
-        <v>2.5</v>
+        <v>2.23</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.49</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="14">
@@ -2359,13 +2359,13 @@
         <v>2.75</v>
       </c>
       <c r="J14" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K14" t="n">
-        <v>3.45</v>
+        <v>3.37</v>
       </c>
       <c r="L14" t="n">
-        <v>2.09</v>
+        <v>2.15</v>
       </c>
       <c r="M14" t="n">
         <v>1.44</v>
@@ -2389,7 +2389,7 @@
         <v>1.98</v>
       </c>
       <c r="T14" t="n">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="U14" t="n">
         <v>1.83</v>

--- a/Jogos_do_Dia/2024-02-14_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-02-14_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -673,37 +673,37 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Al Ittihad</t>
+          <t>Al Mokawloon</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>El Geish</t>
+          <t>ENPPI</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.36</v>
+        <v>3.6</v>
       </c>
       <c r="H2" t="n">
-        <v>2.04</v>
+        <v>1.83</v>
       </c>
       <c r="I2" t="n">
-        <v>3.64</v>
+        <v>3.4</v>
       </c>
       <c r="J2" t="n">
-        <v>2.38</v>
+        <v>2.75</v>
       </c>
       <c r="K2" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="L2" t="n">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="M2" t="n">
         <v>1.5</v>
       </c>
       <c r="N2" t="n">
-        <v>2.58</v>
+        <v>2.57</v>
       </c>
       <c r="O2" t="n">
         <v>1.05</v>
@@ -724,73 +724,73 @@
         <v>1.55</v>
       </c>
       <c r="U2" t="n">
-        <v>1.93</v>
+        <v>2.1</v>
       </c>
       <c r="V2" t="n">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="W2" t="n">
-        <v>1.39</v>
+        <v>1.48</v>
       </c>
       <c r="X2" t="n">
         <v>1.32</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.46</v>
+        <v>1.37</v>
       </c>
       <c r="Z2" t="n">
-        <v>2.2</v>
+        <v>0.4</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.45</v>
+        <v>1.19</v>
       </c>
       <c r="AC2" t="n">
-        <v>1.46</v>
+        <v>1.55</v>
       </c>
       <c r="AD2" t="n">
-        <v>2.91</v>
+        <v>2.74</v>
       </c>
       <c r="AE2" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="AF2" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="AG2" t="n">
-        <v>2.15</v>
+        <v>2.26</v>
       </c>
       <c r="AH2" t="n">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
       <c r="AI2" t="n">
-        <v>2.98</v>
+        <v>3.18</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1.65</v>
+        <v>1.59</v>
       </c>
       <c r="AK2" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="AL2" t="n">
-        <v>2.06</v>
+        <v>1.99</v>
       </c>
       <c r="AM2" t="n">
-        <v>1.75</v>
+        <v>1.81</v>
       </c>
       <c r="AN2" t="n">
-        <v>2.67</v>
+        <v>2.54</v>
       </c>
       <c r="AO2" t="n">
-        <v>1.39</v>
+        <v>1.49</v>
       </c>
       <c r="AP2" t="n">
-        <v>3.65</v>
+        <v>3.48</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="3">
@@ -812,37 +812,37 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Al Mokawloon</t>
+          <t>Al Ittihad</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>ENPPI</t>
+          <t>El Geish</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3.71</v>
+        <v>3.5</v>
       </c>
       <c r="H3" t="n">
-        <v>2.04</v>
+        <v>1.91</v>
       </c>
       <c r="I3" t="n">
-        <v>3.31</v>
+        <v>3.4</v>
       </c>
       <c r="J3" t="n">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="K3" t="n">
         <v>2.9</v>
       </c>
       <c r="L3" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="M3" t="n">
         <v>1.5</v>
       </c>
       <c r="N3" t="n">
-        <v>2.57</v>
+        <v>2.58</v>
       </c>
       <c r="O3" t="n">
         <v>1.05</v>
@@ -857,79 +857,79 @@
         <v>2.6</v>
       </c>
       <c r="S3" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="T3" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="U3" t="n">
-        <v>1.93</v>
+        <v>2.1</v>
       </c>
       <c r="V3" t="n">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="W3" t="n">
-        <v>1.48</v>
+        <v>1.39</v>
       </c>
       <c r="X3" t="n">
         <v>1.32</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.37</v>
+        <v>1.46</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.2</v>
+        <v>1.33</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.19</v>
+        <v>1.45</v>
       </c>
       <c r="AC3" t="n">
-        <v>1.55</v>
+        <v>1.46</v>
       </c>
       <c r="AD3" t="n">
-        <v>2.74</v>
+        <v>2.91</v>
       </c>
       <c r="AE3" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AF3" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="AG3" t="n">
-        <v>2.26</v>
+        <v>2.15</v>
       </c>
       <c r="AH3" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="AI3" t="n">
-        <v>3.18</v>
+        <v>2.98</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1.59</v>
+        <v>1.65</v>
       </c>
       <c r="AK3" t="n">
-        <v>2.28</v>
+        <v>2.22</v>
       </c>
       <c r="AL3" t="n">
-        <v>1.99</v>
+        <v>2.06</v>
       </c>
       <c r="AM3" t="n">
-        <v>1.81</v>
+        <v>1.75</v>
       </c>
       <c r="AN3" t="n">
-        <v>2.54</v>
+        <v>2.67</v>
       </c>
       <c r="AO3" t="n">
-        <v>1.49</v>
+        <v>1.39</v>
       </c>
       <c r="AP3" t="n">
-        <v>3.48</v>
+        <v>3.65</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="4">
@@ -969,13 +969,13 @@
         <v>3.77</v>
       </c>
       <c r="J4" t="n">
-        <v>2.24</v>
+        <v>2.05</v>
       </c>
       <c r="K4" t="n">
-        <v>3.28</v>
+        <v>3.2</v>
       </c>
       <c r="L4" t="n">
-        <v>3.22</v>
+        <v>3.25</v>
       </c>
       <c r="M4" t="n">
         <v>1.33</v>
@@ -996,10 +996,10 @@
         <v>4</v>
       </c>
       <c r="S4" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="T4" t="n">
-        <v>1.98</v>
+        <v>1.8</v>
       </c>
       <c r="U4" t="n">
         <v>1.62</v>
@@ -1108,13 +1108,13 @@
         <v>1.6</v>
       </c>
       <c r="J5" t="n">
-        <v>12.6</v>
+        <v>12</v>
       </c>
       <c r="K5" t="n">
-        <v>6.74</v>
+        <v>5.5</v>
       </c>
       <c r="L5" t="n">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="M5" t="n">
         <v>1.22</v>
@@ -1138,7 +1138,7 @@
         <v>1.53</v>
       </c>
       <c r="T5" t="n">
-        <v>2.34</v>
+        <v>2.2</v>
       </c>
       <c r="U5" t="n">
         <v>1.8</v>
@@ -1238,22 +1238,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="H6" t="n">
         <v>1.95</v>
       </c>
       <c r="I6" t="n">
-        <v>3.4</v>
+        <v>2.88</v>
       </c>
       <c r="J6" t="n">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="K6" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="L6" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="M6" t="n">
         <v>1.5</v>
@@ -1280,10 +1280,10 @@
         <v>1.57</v>
       </c>
       <c r="U6" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V6" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="W6" t="n">
         <v>1.46</v>
@@ -1310,43 +1310,43 @@
         <v>3.94</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>8.1</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AK6" t="n">
-        <v>0</v>
+        <v>2.07</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>2.09</v>
       </c>
       <c r="AM6" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="AN6" t="n">
-        <v>0</v>
+        <v>2.79</v>
       </c>
       <c r="AO6" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AP6" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="7">
@@ -1389,10 +1389,10 @@
         <v>2.3</v>
       </c>
       <c r="K7" t="n">
-        <v>3.19</v>
+        <v>3.1</v>
       </c>
       <c r="L7" t="n">
-        <v>3.17</v>
+        <v>3.2</v>
       </c>
       <c r="M7" t="n">
         <v>1.5</v>
@@ -1413,10 +1413,10 @@
         <v>2.9</v>
       </c>
       <c r="S7" t="n">
-        <v>2.19</v>
+        <v>2.2</v>
       </c>
       <c r="T7" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="U7" t="n">
         <v>1.95</v>
@@ -1491,7 +1491,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>England Championship</t>
+          <t>Scotland Premiership</t>
         </is>
       </c>
       <c r="B8" s="2" t="n">
@@ -1503,134 +1503,134 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Plymouth Argyle</t>
+          <t>Aberdeen</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Coventry City</t>
+          <t>Motherwell</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>4.37</v>
+        <v>2.3</v>
       </c>
       <c r="H8" t="n">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="I8" t="n">
-        <v>2.39</v>
+        <v>4.75</v>
       </c>
       <c r="J8" t="n">
-        <v>4.01</v>
+        <v>1.91</v>
       </c>
       <c r="K8" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L8" t="n">
         <v>4</v>
       </c>
-      <c r="L8" t="n">
-        <v>1.85</v>
-      </c>
       <c r="M8" t="n">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="N8" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="O8" t="n">
         <v>1.03</v>
       </c>
       <c r="P8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.14</v>
+        <v>1.22</v>
       </c>
       <c r="R8" t="n">
-        <v>4.7</v>
+        <v>4</v>
       </c>
       <c r="S8" t="n">
-        <v>1.52</v>
+        <v>1.91</v>
       </c>
       <c r="T8" t="n">
-        <v>2.43</v>
+        <v>1.83</v>
       </c>
       <c r="U8" t="n">
-        <v>1.55</v>
+        <v>1.75</v>
       </c>
       <c r="V8" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="W8" t="n">
-        <v>1.97</v>
+        <v>1.22</v>
       </c>
       <c r="X8" t="n">
         <v>1.25</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.16</v>
+        <v>2</v>
       </c>
       <c r="Z8" t="n">
-        <v>1.93</v>
+        <v>1.18</v>
       </c>
       <c r="AA8" t="n">
-        <v>1.2</v>
+        <v>0.82</v>
       </c>
       <c r="AB8" t="n">
-        <v>1.65</v>
+        <v>1.27</v>
       </c>
       <c r="AC8" t="n">
-        <v>1.42</v>
+        <v>1.14</v>
       </c>
       <c r="AD8" t="n">
-        <v>3.07</v>
+        <v>2.41</v>
       </c>
       <c r="AE8" t="n">
-        <v>2.53</v>
+        <v>1.59</v>
       </c>
       <c r="AF8" t="n">
         <v>8.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>1.69</v>
+        <v>2.78</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="AK8" t="n">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="AL8" t="n">
-        <v>1.4</v>
+        <v>1.54</v>
       </c>
       <c r="AM8" t="n">
-        <v>2.8</v>
+        <v>2.38</v>
       </c>
       <c r="AN8" t="n">
-        <v>1.68</v>
+        <v>1.95</v>
       </c>
       <c r="AO8" t="n">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="AP8" t="n">
-        <v>2.12</v>
+        <v>2.5</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1.67</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>England Championship</t>
+          <t>Scotland Premiership</t>
         </is>
       </c>
       <c r="B9" s="2" t="n">
@@ -1642,128 +1642,128 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Preston North End</t>
+          <t>Rangers</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Middlesbrough</t>
+          <t>Ross County</t>
         </is>
       </c>
       <c r="G9" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I9" t="n">
+        <v>10</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="L9" t="n">
+        <v>29</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="N9" t="n">
         <v>4</v>
       </c>
-      <c r="H9" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3.62</v>
-      </c>
-      <c r="K9" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="L9" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="M9" t="n">
+      <c r="O9" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P9" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="R9" t="n">
+        <v>6</v>
+      </c>
+      <c r="S9" t="n">
         <v>1.4</v>
       </c>
-      <c r="N9" t="n">
+      <c r="T9" t="n">
         <v>2.75</v>
       </c>
-      <c r="O9" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="P9" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="R9" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="S9" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1.83</v>
-      </c>
       <c r="U9" t="n">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="V9" t="n">
-        <v>1.91</v>
+        <v>1.7</v>
       </c>
       <c r="W9" t="n">
-        <v>1.73</v>
+        <v>1.03</v>
       </c>
       <c r="X9" t="n">
-        <v>1.32</v>
+        <v>1.09</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.31</v>
+        <v>4.8</v>
       </c>
       <c r="Z9" t="n">
-        <v>1.73</v>
+        <v>2.5</v>
       </c>
       <c r="AA9" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AL9" t="n">
         <v>1.43</v>
       </c>
-      <c r="AB9" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>1.61</v>
-      </c>
       <c r="AM9" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AP9" t="n">
         <v>2.23</v>
       </c>
-      <c r="AN9" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>2.7</v>
-      </c>
       <c r="AQ9" t="n">
-        <v>1.43</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="10">
@@ -1785,124 +1785,124 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Stoke City</t>
+          <t>Huddersfield Town</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Queens Park Rangers</t>
+          <t>Sunderland</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.75</v>
+        <v>3.9</v>
       </c>
       <c r="H10" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="I10" t="n">
-        <v>4.33</v>
+        <v>2.65</v>
       </c>
       <c r="J10" t="n">
-        <v>1.98</v>
+        <v>4</v>
       </c>
       <c r="K10" t="n">
-        <v>3.44</v>
+        <v>3.4</v>
       </c>
       <c r="L10" t="n">
-        <v>4.06</v>
+        <v>1.95</v>
       </c>
       <c r="M10" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="N10" t="n">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="O10" t="n">
-        <v>1.08</v>
+        <v>1.02</v>
       </c>
       <c r="P10" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="R10" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="S10" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T10" t="n">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="U10" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="V10" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="W10" t="n">
-        <v>1.28</v>
+        <v>1.73</v>
       </c>
       <c r="X10" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AB10" t="n">
         <v>1.32</v>
       </c>
-      <c r="Y10" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>1.33</v>
-      </c>
       <c r="AC10" t="n">
-        <v>0.99</v>
+        <v>1.56</v>
       </c>
       <c r="AD10" t="n">
-        <v>2.32</v>
+        <v>2.88</v>
       </c>
       <c r="AE10" t="n">
-        <v>1.64</v>
+        <v>3.07</v>
       </c>
       <c r="AF10" t="n">
         <v>8.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>2.66</v>
+        <v>1.51</v>
       </c>
       <c r="AH10" t="n">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="AI10" t="n">
-        <v>4.65</v>
+        <v>4.5</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="AK10" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="AL10" t="n">
-        <v>1.55</v>
+        <v>1.61</v>
       </c>
       <c r="AM10" t="n">
-        <v>2.38</v>
+        <v>2.23</v>
       </c>
       <c r="AN10" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="AO10" t="n">
-        <v>1.8</v>
+        <v>1.74</v>
       </c>
       <c r="AP10" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.49</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="11">
@@ -1924,130 +1924,130 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Huddersfield Town</t>
+          <t>Plymouth Argyle</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Sunderland</t>
+          <t>Coventry City</t>
         </is>
       </c>
       <c r="G11" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="J11" t="n">
         <v>3.9</v>
       </c>
-      <c r="H11" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="I11" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="J11" t="n">
-        <v>4.07</v>
-      </c>
       <c r="K11" t="n">
-        <v>3.59</v>
+        <v>3.8</v>
       </c>
       <c r="L11" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="N11" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="P11" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="R11" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="V11" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W11" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="X11" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="Z11" t="n">
         <v>1.93</v>
       </c>
-      <c r="M11" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="N11" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="P11" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="R11" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="W11" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="X11" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="Z11" t="n">
+      <c r="AA11" t="n">
         <v>1.2</v>
       </c>
-      <c r="AA11" t="n">
-        <v>1.13</v>
-      </c>
       <c r="AB11" t="n">
-        <v>1.32</v>
+        <v>1.65</v>
       </c>
       <c r="AC11" t="n">
-        <v>1.56</v>
+        <v>1.42</v>
       </c>
       <c r="AD11" t="n">
-        <v>2.88</v>
+        <v>3.07</v>
       </c>
       <c r="AE11" t="n">
-        <v>3.07</v>
+        <v>2.53</v>
       </c>
       <c r="AF11" t="n">
         <v>8.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>1.51</v>
+        <v>1.69</v>
       </c>
       <c r="AH11" t="n">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="AI11" t="n">
-        <v>4.5</v>
+        <v>5.8</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1.34</v>
+        <v>1.22</v>
       </c>
       <c r="AK11" t="n">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="AL11" t="n">
-        <v>1.61</v>
+        <v>1.4</v>
       </c>
       <c r="AM11" t="n">
-        <v>2.23</v>
+        <v>2.8</v>
       </c>
       <c r="AN11" t="n">
-        <v>2.02</v>
+        <v>1.68</v>
       </c>
       <c r="AO11" t="n">
-        <v>1.74</v>
+        <v>2.1</v>
       </c>
       <c r="AP11" t="n">
-        <v>2.7</v>
+        <v>2.12</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1.44</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Scotland Premiership</t>
+          <t>England Championship</t>
         </is>
       </c>
       <c r="B12" s="2" t="n">
@@ -2059,98 +2059,98 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Aberdeen</t>
+          <t>Preston North End</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Motherwell</t>
+          <t>Middlesbrough</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="H12" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="I12" t="n">
-        <v>4.75</v>
+        <v>2.88</v>
       </c>
       <c r="J12" t="n">
-        <v>1.92</v>
+        <v>3.8</v>
       </c>
       <c r="K12" t="n">
-        <v>3.58</v>
+        <v>3.4</v>
       </c>
       <c r="L12" t="n">
-        <v>4.16</v>
+        <v>2</v>
       </c>
       <c r="M12" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="N12" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="P12" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q12" t="n">
         <v>1.33</v>
       </c>
-      <c r="N12" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="P12" t="n">
-        <v>13</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.22</v>
-      </c>
       <c r="R12" t="n">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="S12" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="T12" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="U12" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V12" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W12" t="n">
-        <v>1.22</v>
+        <v>1.73</v>
       </c>
       <c r="X12" t="n">
-        <v>1.25</v>
+        <v>1.32</v>
       </c>
       <c r="Y12" t="n">
-        <v>2</v>
+        <v>1.31</v>
       </c>
       <c r="Z12" t="n">
-        <v>1.18</v>
+        <v>1.73</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.82</v>
+        <v>1.43</v>
       </c>
       <c r="AB12" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AC12" t="n">
-        <v>1.14</v>
+        <v>1.48</v>
       </c>
       <c r="AD12" t="n">
-        <v>2.41</v>
+        <v>2.65</v>
       </c>
       <c r="AE12" t="n">
-        <v>1.59</v>
+        <v>2.78</v>
       </c>
       <c r="AF12" t="n">
         <v>8.5</v>
       </c>
       <c r="AG12" t="n">
-        <v>2.78</v>
+        <v>1.59</v>
       </c>
       <c r="AH12" t="n">
         <v>1.18</v>
@@ -2159,34 +2159,34 @@
         <v>4.5</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="AK12" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="AL12" t="n">
-        <v>1.54</v>
+        <v>1.61</v>
       </c>
       <c r="AM12" t="n">
-        <v>2.38</v>
+        <v>2.23</v>
       </c>
       <c r="AN12" t="n">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="AO12" t="n">
-        <v>1.85</v>
+        <v>1.74</v>
       </c>
       <c r="AP12" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1.49</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Scotland Premiership</t>
+          <t>England Championship</t>
         </is>
       </c>
       <c r="B13" s="2" t="n">
@@ -2198,128 +2198,128 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Rangers</t>
+          <t>Stoke City</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Ross County</t>
+          <t>Queens Park Rangers</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.57</v>
+        <v>2.75</v>
       </c>
       <c r="H13" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="K13" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="L13" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="N13" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="P13" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="R13" t="n">
         <v>3</v>
       </c>
-      <c r="I13" t="n">
-        <v>10</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="K13" t="n">
-        <v>13.07</v>
-      </c>
-      <c r="L13" t="n">
-        <v>25.78</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="N13" t="n">
-        <v>4</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P13" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="R13" t="n">
-        <v>6</v>
-      </c>
       <c r="S13" t="n">
-        <v>1.42</v>
+        <v>2.1</v>
       </c>
       <c r="T13" t="n">
-        <v>2.74</v>
+        <v>1.67</v>
       </c>
       <c r="U13" t="n">
-        <v>2.05</v>
+        <v>1.83</v>
       </c>
       <c r="V13" t="n">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="W13" t="n">
-        <v>1.03</v>
+        <v>1.28</v>
       </c>
       <c r="X13" t="n">
-        <v>1.09</v>
+        <v>1.32</v>
       </c>
       <c r="Y13" t="n">
-        <v>4.8</v>
+        <v>1.78</v>
       </c>
       <c r="Z13" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AP13" t="n">
         <v>2.5</v>
       </c>
-      <c r="AA13" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>2.23</v>
-      </c>
       <c r="AQ13" t="n">
-        <v>1.62</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="14">
@@ -2362,10 +2362,10 @@
         <v>3.6</v>
       </c>
       <c r="K14" t="n">
-        <v>3.37</v>
+        <v>3.3</v>
       </c>
       <c r="L14" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="M14" t="n">
         <v>1.44</v>
@@ -2386,10 +2386,10 @@
         <v>3.2</v>
       </c>
       <c r="S14" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="T14" t="n">
-        <v>1.77</v>
+        <v>1.7</v>
       </c>
       <c r="U14" t="n">
         <v>1.83</v>
